--- a/TemplateGOTests/data/table.xlsx
+++ b/TemplateGOTests/data/table.xlsx
@@ -1,22 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanglb\work\template-go\TemplateGOTests\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F1949C-F799-4E9A-A9D2-D83EE942B88A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37766166-3801-49B5-99D8-6114CF712940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8340" yWindow="375" windowWidth="19890" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1FF4AB30-C56D-4952-8D75-2B4C64915CB0}"/>
   </bookViews>
   <sheets>
-    <sheet name="属性替换" sheetId="1" r:id="rId1"/>
-    <sheet name="第二个Sheet" sheetId="2" r:id="rId2"/>
-    <sheet name="图表" sheetId="3" r:id="rId3"/>
-    <sheet name="测试数据" sheetId="4" r:id="rId4"/>
+    <sheet name="表格测试" sheetId="1" r:id="rId1"/>
+    <sheet name="图表" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,248 +37,97 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
-    <t>TemplateGO 测试</t>
+    <t>#index</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${name}</t>
+    <t>#seq</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${age}</t>
+    <t>=formula</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>文字</t>
+    <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>整数</t>
+    <t>language</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${score}</t>
+    <t>math</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小数</t>
+    <t>english</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${hasPhone}</t>
+    <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>布尔</t>
+    <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${school.name}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多级测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${parents[0].name}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数组测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${home|link:homeLink}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这个应该也被换了</t>
+    <t>索引</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>姓名</t>
-  </si>
-  <si>
-    <t>${history}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>${history|list}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>sex</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>birthday</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>=age</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>className</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>yw</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>sx</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>yy</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>性别</t>
-  </si>
-  <si>
-    <t>生日</t>
-  </si>
-  <si>
-    <t>年龄</t>
-  </si>
-  <si>
-    <t>班级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>语文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>英文</t>
+    <t>英语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>总分</t>
-  </si>
-  <si>
-    <t>杨1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>男</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3年二班</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>张1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>女</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>张2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨利</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>多个属性拼接</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${name} 的母亲叫 ${parents[1].name}</t>
+    <t>${data|list:titleCount=2,cleanExists}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${name} 你好。</t>
+    <t>杨洁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>含有其它内容</t>
+    <t>杨虹</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>我有${age}岁了</t>
+    <t>张佳</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>整数有其它内容</t>
+    <t>张晓红</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>超链接</t>
+    <t>李微</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>超链接+拼接</t>
+    <t>${title}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>这是我的首页${home|link:homeLink}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${name}${name}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>两个相同的文字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${age}${age}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>两个整数应该显示为字符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我得了${score|link:homeLink}分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仅添加超链接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${name|nono}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不支持的处理程序将原样保留</t>
+    <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -288,34 +135,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -330,22 +153,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -354,18 +170,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor theme="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor theme="4"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -388,449 +198,271 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-  </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+  </cellStyleXfs>
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="9">
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="1"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -860,31 +492,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US"/>
-              <a:t>测试</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -924,6 +531,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>表格测试!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>语文</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -936,66 +554,71 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>测试数据!$B$4:$B$9</c:f>
+              <c:f>表格测试!$D$5:$D$9</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>杨1</c:v>
+                  <c:v>杨洁</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>杨2</c:v>
+                  <c:v>杨虹</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>张1</c:v>
+                  <c:v>张佳</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>张2</c:v>
+                  <c:v>张晓红</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>杨利</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>测试</c:v>
+                  <c:v>李微</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>测试数据!$G$4:$G$9</c:f>
+              <c:f>表格测试!$E$5:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>86</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>90</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>76</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>77</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C221-44B4-A500-01B53F44E4AD}"/>
+              <c16:uniqueId val="{00000000-7F7E-4EE8-8418-86EB45E83862}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>表格测试!$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>数学</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent2"/>
@@ -1008,66 +631,71 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>测试数据!$B$4:$B$9</c:f>
+              <c:f>表格测试!$D$5:$D$9</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>杨1</c:v>
+                  <c:v>杨洁</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>杨2</c:v>
+                  <c:v>杨虹</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>张1</c:v>
+                  <c:v>张佳</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>张2</c:v>
+                  <c:v>张晓红</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>杨利</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>测试</c:v>
+                  <c:v>李微</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>测试数据!$H$4:$H$9</c:f>
+              <c:f>表格测试!$F$5:$F$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>79</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C221-44B4-A500-01B53F44E4AD}"/>
+              <c16:uniqueId val="{00000001-7F7E-4EE8-8418-86EB45E83862}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>表格测试!$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>英语</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent3"/>
@@ -1080,36 +708,33 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>测试数据!$B$4:$B$9</c:f>
+              <c:f>表格测试!$D$5:$D$9</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>杨1</c:v>
+                  <c:v>杨洁</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>杨2</c:v>
+                  <c:v>杨虹</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>张1</c:v>
+                  <c:v>张佳</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>张2</c:v>
+                  <c:v>张晓红</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>杨利</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>测试</c:v>
+                  <c:v>李微</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>测试数据!$I$4:$I$9</c:f>
+              <c:f>表格测试!$G$5:$G$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>75</c:v>
                 </c:pt>
@@ -1117,23 +742,20 @@
                   <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>99</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>68</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>96</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C221-44B4-A500-01B53F44E4AD}"/>
+              <c16:uniqueId val="{00000002-7F7E-4EE8-8418-86EB45E83862}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1147,8 +769,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1011820944"/>
-        <c:axId val="1011820112"/>
+        <c:axId val="1291153648"/>
+        <c:axId val="1291142832"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1156,6 +778,17 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>表格测试!$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>总分</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -1182,53 +815,47 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>测试数据!$B$4:$B$9</c:f>
+              <c:f>表格测试!$D$5:$D$9</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>杨1</c:v>
+                  <c:v>杨洁</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>杨2</c:v>
+                  <c:v>杨虹</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>张1</c:v>
+                  <c:v>张佳</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>张2</c:v>
+                  <c:v>张晓红</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>杨利</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>测试</c:v>
+                  <c:v>李微</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>测试数据!$J$4:$J$9</c:f>
+              <c:f>表格测试!$H$5:$H$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>249</c:v>
+                  <c:v>239</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>254</c:v>
+                  <c:v>248</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>279</c:v>
+                  <c:v>247</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>204</c:v>
+                  <c:v>235</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>249</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>252</c:v>
+                  <c:v>257</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1236,7 +863,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-C221-44B4-A500-01B53F44E4AD}"/>
+              <c16:uniqueId val="{00000003-7F7E-4EE8-8418-86EB45E83862}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1250,11 +877,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1203969824"/>
-        <c:axId val="1203977312"/>
+        <c:axId val="1301362144"/>
+        <c:axId val="1301373376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1011820944"/>
+        <c:axId val="1291153648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1297,7 +924,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1011820112"/>
+        <c:crossAx val="1291142832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1305,7 +932,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1011820112"/>
+        <c:axId val="1291142832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1356,12 +983,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1011820944"/>
+        <c:crossAx val="1291153648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1203977312"/>
+        <c:axId val="1301373376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1398,12 +1025,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1203969824"/>
+        <c:crossAx val="1301362144"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1203969824"/>
+        <c:axId val="1301362144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1413,8 +1040,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1203977312"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="1301373376"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1428,6 +1054,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -2011,10 +1668,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{90470CA8-3C2B-4BA3-BF9F-6D6108E8EED2}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{286C6E91-E571-4FB6-91A2-DBA21E00E2A2}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="110" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="70" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2025,13 +1682,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9291205" cy="6070023"/>
+    <xdr:ext cx="9303712" cy="6080606"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{273C5F18-0687-44D9-D8F1-66E6A53B2AFC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F4ADFDB-B1AA-793E-6FCB-7B27C7962D1F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2055,32 +1712,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{016E1EEC-8F15-4F84-AC33-D5F0EF0ADD1E}" name="表2" displayName="表2" ref="B3:J9" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="B3:J9" xr:uid="{016E1EEC-8F15-4F84-AC33-D5F0EF0ADD1E}"/>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{0D7F65C1-6644-4295-985A-CA00CE1CA4FE}" name="姓名" totalsRowLabel="汇总" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{A2A5F9A7-FCA2-4FB8-9E89-A19E366A9386}" name="性别" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{DB657415-D666-410E-AA33-D2DF72FC3DD8}" name="生日" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{E269E7DF-8682-4144-91EB-E324D6D59097}" name="年龄" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{534B4F28-2340-4708-8B9B-2D722E7912EC}" name="班级" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{70DB4FF8-56CB-4DF3-A349-F94005531784}" name="语文" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{A6028916-9187-42DB-B73A-12D71546BFF9}" name="数学" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{355D998E-A109-417D-A9D0-808856E33E5F}" name="英文" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{FEF11A4C-1260-470E-B6BF-FFE3D0CA14EF}" name="总分" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0">
-      <calculatedColumnFormula>SUM(G4:I4)</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EA3FCD81-9B30-4ECB-8275-568E0F49B826}" name="表1" displayName="表1" ref="A4:H9" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A4:H9" xr:uid="{EA3FCD81-9B30-4ECB-8275-568E0F49B826}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{4EA51182-1D8F-4BA8-B193-6537F258D377}" name="索引" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{7B6A50C3-3E97-4D90-8916-ACC5B7B51731}" name="编号" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{B7FBB42B-C576-4EE4-8704-DCF782A9195C}" name="Id" dataDxfId="0">
+      <calculatedColumnFormula>B5</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{F29E1080-A192-4690-926F-ED378B278D8F}" name="姓名" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{E2D70C3A-F75F-4D77-A8E8-571A165B727A}" name="语文" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{D312A48E-A148-4DDD-B927-3EFB1488E950}" name="数学" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{9E111DE7-3450-47CC-8AB9-27AF5F513F0A}" name="英语" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{FF2F1946-7D89-4051-8A96-341411A0E818}" name="总分" dataDxfId="2">
+      <calculatedColumnFormula>SUM(E5:G5)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight15" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{504A1905-F514-4f6f-8877-14C23A59335A}">
-      <x14:table altText="1111" altTextSummary="2222"/>
-    </ext>
-  </extLst>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2096,7 +1749,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -2108,7 +1761,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -2125,7 +1778,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -2155,12 +1808,29 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -2190,6 +1860,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2341,541 +2028,240 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C72A37D3-4890-49D9-838A-E8D91E57246F}">
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.375" customWidth="1"/>
-    <col min="2" max="2" width="32.75" customWidth="1"/>
-    <col min="3" max="3" width="29.75" customWidth="1"/>
+    <col min="1" max="3" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="8"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="H4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
-        <f>ROW()-2</f>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C5" s="1">
+        <f>B5</f>
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1">
+        <v>76</v>
+      </c>
+      <c r="F5" s="1">
+        <v>88</v>
+      </c>
+      <c r="G5" s="1">
+        <v>75</v>
+      </c>
+      <c r="H5" s="1">
+        <f>SUM(E5:G5)</f>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" ref="C6:C9" si="0">B6</f>
+        <v>2</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="1">
+        <v>88</v>
+      </c>
+      <c r="F6" s="1">
+        <v>84</v>
+      </c>
+      <c r="G6" s="1">
+        <v>76</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" ref="H6:H9" si="1">SUM(E6:G6)</f>
+        <v>248</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1">
         <v>3</v>
       </c>
+      <c r="C7" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="1">
+        <v>82</v>
+      </c>
+      <c r="F7" s="1">
+        <v>75</v>
+      </c>
+      <c r="G7" s="1">
+        <v>90</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="1"/>
+        <v>247</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
-        <f>ROW()-2</f>
-        <v>2</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>56</v>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="1">
+        <v>74</v>
+      </c>
+      <c r="F8" s="1">
+        <v>77</v>
+      </c>
+      <c r="G8" s="1">
+        <v>84</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="1"/>
+        <v>235</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
-        <f t="shared" ref="A5:A10" si="0">ROW()-2</f>
-        <v>3</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="6" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
-        <f>ROW()-2</f>
-        <v>4</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
-        <f t="shared" ref="A11:A17" si="1">ROW()-2</f>
-        <v>9</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
+      <c r="D9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="1">
+        <v>79</v>
+      </c>
+      <c r="F9" s="1">
+        <v>90</v>
+      </c>
+      <c r="G9" s="1">
+        <v>88</v>
+      </c>
+      <c r="H9" s="1">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>62</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+  <mergeCells count="2">
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B11" r:id="rId1" xr:uid="{DEF444FF-B619-461F-8641-2326955D17C4}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F44AD891-4449-45E2-B2B6-B14BFB8A4222}">
-  <dimension ref="B4:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B5" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="8"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B5:C5"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D07B48BF-A35D-4402-A424-C36A93E45C90}">
-  <dimension ref="A1:J9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="4" max="4" width="10.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="4">
-        <v>44830</v>
-      </c>
-      <c r="E4" s="1">
-        <v>26</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="1">
-        <v>86</v>
-      </c>
-      <c r="H4" s="1">
-        <v>88</v>
-      </c>
-      <c r="I4" s="1">
-        <v>75</v>
-      </c>
-      <c r="J4" s="1">
-        <f>SUM(G4:I4)</f>
-        <v>249</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="4">
-        <v>44830</v>
-      </c>
-      <c r="E5" s="1">
-        <v>27</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="1">
-        <v>88</v>
-      </c>
-      <c r="H5" s="1">
-        <v>90</v>
-      </c>
-      <c r="I5" s="1">
-        <v>76</v>
-      </c>
-      <c r="J5" s="1">
-        <f>SUM(G5:I5)</f>
-        <v>254</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="4">
-        <v>44830</v>
-      </c>
-      <c r="E6" s="1">
-        <v>12</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="1">
-        <v>90</v>
-      </c>
-      <c r="H6" s="1">
-        <v>90</v>
-      </c>
-      <c r="I6" s="1">
-        <v>99</v>
-      </c>
-      <c r="J6" s="1">
-        <f>SUM(G6:I6)</f>
-        <v>279</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="4">
-        <v>44830</v>
-      </c>
-      <c r="E7" s="1">
-        <v>13</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="1">
-        <v>76</v>
-      </c>
-      <c r="H7" s="1">
-        <v>60</v>
-      </c>
-      <c r="I7" s="1">
-        <v>68</v>
-      </c>
-      <c r="J7" s="1">
-        <f>SUM(G7:I7)</f>
-        <v>204</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="4">
-        <v>44830</v>
-      </c>
-      <c r="E8" s="1">
-        <v>12</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="1">
-        <v>85</v>
-      </c>
-      <c r="H8" s="1">
-        <v>76</v>
-      </c>
-      <c r="I8" s="1">
-        <v>88</v>
-      </c>
-      <c r="J8" s="1">
-        <f t="shared" ref="J8" si="0">SUM(G8:I8)</f>
-        <v>249</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="4">
-        <v>44830</v>
-      </c>
-      <c r="E9" s="1">
-        <v>11</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="1">
-        <v>77</v>
-      </c>
-      <c r="H9" s="1">
-        <v>79</v>
-      </c>
-      <c r="I9" s="1">
-        <v>96</v>
-      </c>
-      <c r="J9" s="1">
-        <f>SUM(G9:I9)</f>
-        <v>252</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:J1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B4:B9">
-    <cfRule type="duplicateValues" dxfId="21" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="2"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/TemplateGOTests/data/table.xlsx
+++ b/TemplateGOTests/data/table.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanglb\work\template-go\TemplateGOTests\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37766166-3801-49B5-99D8-6114CF712940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A100A7-2C1D-4C57-9263-4E065CA88F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1FF4AB30-C56D-4952-8D75-2B4C64915CB0}"/>
+    <workbookView xWindow="13635" yWindow="945" windowWidth="15270" windowHeight="13995" xr2:uid="{1FF4AB30-C56D-4952-8D75-2B4C64915CB0}"/>
   </bookViews>
   <sheets>
     <sheet name="表格测试" sheetId="1" r:id="rId1"/>
-    <sheet name="图表" sheetId="2" r:id="rId2"/>
+    <sheet name="无汇总行" sheetId="3" r:id="rId2"/>
+    <sheet name="图表" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,8 +37,73 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Libing Yang</author>
+  </authors>
+  <commentList>
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{4808C8AC-19FE-4E97-9E91-ACE0CBBEDEC9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Libing Yang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+将数据中 formual 属性的值当作公式使用</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{7D43CB01-DB82-4035-813B-ACBC0C62FBCE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Libing Yang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+将 =: 后面的字符当作公式插入。
+#row   - 替换为行号
+#index - 替换为数组索引
+#seq   - 替换为数组序列</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
   <si>
     <t>#index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,67 +133,138 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>杨洁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨虹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张佳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张晓红</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李微</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${title}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这也是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此处不应该显示在下方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=:SUM(E#row:G#row)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是其它的一些内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索引</t>
+  </si>
+  <si>
+    <t>编号</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>语文</t>
+  </si>
+  <si>
+    <t>数学</t>
+  </si>
+  <si>
+    <t>英语</t>
+  </si>
+  <si>
+    <t>总分</t>
+  </si>
+  <si>
+    <t>说明</t>
+  </si>
+  <si>
+    <t>平均分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇总</t>
+  </si>
+  <si>
+    <t>=:ROUND(AVERAGE(表1[[#This Row],[语文]:[英语]]),0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有标题及汇总的第二个表格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>编号</t>
+    <t>杨洁</t>
+  </si>
+  <si>
+    <t>杨虹</t>
+  </si>
+  <si>
+    <t>张佳</t>
+  </si>
+  <si>
+    <t>下方内容不受影响</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>索引</t>
+    <t>限制7条数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>姓名</t>
+    <t>${data|table:titleCount=3,limit=7}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>语文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英语</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${data|list:titleCount=2,cleanExists}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨洁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨虹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张佳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张晓红</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李微</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${title}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
+    <t>${data|table:titleCount=3}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -135,7 +272,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,8 +297,41 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -170,12 +340,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -235,50 +417,529 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="26">
     <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -315,26 +976,50 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -342,120 +1027,8 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <top/>
+        <bottom/>
         <vertical style="thin">
           <color indexed="64"/>
         </vertical>
@@ -531,17 +1104,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>表格测试!$E$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>语文</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -554,7 +1116,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>表格测试!$D$5:$D$9</c:f>
+              <c:f>表格测试!$D$7:$D$11</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -577,7 +1139,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>表格测试!$E$5:$E$9</c:f>
+              <c:f>表格测试!$E$7:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -608,17 +1170,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>表格测试!$F$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>数学</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent2"/>
@@ -631,7 +1182,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>表格测试!$D$5:$D$9</c:f>
+              <c:f>表格测试!$D$7:$D$11</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -654,7 +1205,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>表格测试!$F$5:$F$9</c:f>
+              <c:f>表格测试!$F$7:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -685,17 +1236,6 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>表格测试!$G$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>英语</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent3"/>
@@ -708,7 +1248,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>表格测试!$D$5:$D$9</c:f>
+              <c:f>表格测试!$D$7:$D$11</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -731,7 +1271,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>表格测试!$G$5:$G$9</c:f>
+              <c:f>表格测试!$G$7:$G$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -778,17 +1318,6 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>表格测试!$H$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>总分</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -815,7 +1344,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>表格测试!$D$5:$D$9</c:f>
+              <c:f>表格测试!$D$7:$D$11</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -838,7 +1367,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>表格测试!$H$5:$H$9</c:f>
+              <c:f>表格测试!$H$7:$H$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1041,6 +1570,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1301373376"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1671,7 +2201,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{286C6E91-E571-4FB6-91A2-DBA21E00E2A2}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="70" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="99" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1712,21 +2242,37 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EA3FCD81-9B30-4ECB-8275-568E0F49B826}" name="表1" displayName="表1" ref="A4:H9" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A4:H9" xr:uid="{EA3FCD81-9B30-4ECB-8275-568E0F49B826}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{4EA51182-1D8F-4BA8-B193-6537F258D377}" name="索引" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{7B6A50C3-3E97-4D90-8916-ACC5B7B51731}" name="编号" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{B7FBB42B-C576-4EE4-8704-DCF782A9195C}" name="Id" dataDxfId="0">
-      <calculatedColumnFormula>B5</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B442C8DA-7694-49E7-AF7D-85F44F169235}" name="表1" displayName="表1" ref="A6:J12" totalsRowCount="1" headerRowDxfId="25" dataDxfId="24" totalsRowDxfId="22" tableBorderDxfId="23">
+  <autoFilter ref="A6:J11" xr:uid="{B442C8DA-7694-49E7-AF7D-85F44F169235}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{9E6086D4-EF08-43EE-BF01-64EB25833D42}" name="索引" totalsRowLabel="汇总" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{04DC8F26-3481-4730-B199-15E72FECA9A2}" name="编号" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{A046EC53-05A4-4958-B0BC-DE5E6AC3860A}" name="Id" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{541F1BD9-CADD-4617-95CC-1C3F0C7E1E81}" name="姓名" totalsRowFunction="count" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{2E12F431-6842-43CD-A274-75785FF3B7C4}" name="语文" totalsRowFunction="average" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{9E6D9087-B7C7-43B9-83FB-868FBE9EEC16}" name="数学" totalsRowFunction="average" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{15E14A88-20BD-424B-817E-A0CA896D498A}" name="英语" totalsRowFunction="average" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{979B07F2-C388-46C4-9797-9940B2B2F267}" name="总分" totalsRowFunction="average" dataDxfId="7" totalsRowDxfId="6">
+      <calculatedColumnFormula>SUM(表1[[#This Row],[语文]:[英语]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{F29E1080-A192-4690-926F-ED378B278D8F}" name="姓名" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{E2D70C3A-F75F-4D77-A8E8-571A165B727A}" name="语文" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{D312A48E-A148-4DDD-B927-3EFB1488E950}" name="数学" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{9E111DE7-3450-47CC-8AB9-27AF5F513F0A}" name="英语" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{FF2F1946-7D89-4051-8A96-341411A0E818}" name="总分" dataDxfId="2">
-      <calculatedColumnFormula>SUM(E5:G5)</calculatedColumnFormula>
+    <tableColumn id="9" xr3:uid="{5B46BDAF-CBCE-473F-B7CB-27C7F36099A5}" name="平均分" totalsRowFunction="average" dataDxfId="5" totalsRowDxfId="4">
+      <calculatedColumnFormula>ROUND(AVERAGE(表1[[#This Row],[语文]:[英语]]),0)</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="10" xr3:uid="{9AF9B39C-1EC7-4E9C-9807-0ADDA660ED6D}" name="说明" dataDxfId="3" totalsRowDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2F37CCA2-CA0B-4A31-B644-6241A751A3BB}" name="表4" displayName="表4" ref="B8:F11" totalsRowShown="0" headerRowDxfId="1" tableBorderDxfId="0">
+  <autoFilter ref="B8:F11" xr:uid="{2F37CCA2-CA0B-4A31-B644-6241A751A3BB}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{3A4BA778-6F79-4091-894A-EC403E0A8B57}" name="Id"/>
+    <tableColumn id="2" xr3:uid="{42499765-6CFE-4057-A688-32B6227C2E3C}" name="姓名"/>
+    <tableColumn id="3" xr3:uid="{1974E0EC-B104-4213-A6E3-D2104D6E766C}" name="语言"/>
+    <tableColumn id="4" xr3:uid="{50280233-645F-44D1-8A23-736B2AF74456}" name="数学"/>
+    <tableColumn id="5" xr3:uid="{55FE7EB4-7DE9-4835-9D64-80753465F204}" name="英文"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2028,238 +2574,444 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C72A37D3-4890-49D9-838A-E8D91E57246F}">
-  <dimension ref="A1:H9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C72A37D3-4890-49D9-838A-E8D91E57246F}">
+  <dimension ref="A2:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="A2" sqref="A2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="9" customWidth="1"/>
+    <col min="10" max="10" width="22.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="12"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>0</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="5">
+        <v>76</v>
+      </c>
+      <c r="F7" s="5">
+        <v>88</v>
+      </c>
+      <c r="G7" s="5">
+        <v>75</v>
+      </c>
+      <c r="H7" s="5">
+        <f>SUM(表1[[#This Row],[语文]:[英语]])</f>
+        <v>239</v>
+      </c>
+      <c r="I7" s="5">
+        <f>ROUND(AVERAGE(表1[[#This Row],[语文]:[英语]]),0)</f>
+        <v>80</v>
+      </c>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>1</v>
+      </c>
+      <c r="B8" s="5">
+        <v>2</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="5">
+        <v>88</v>
+      </c>
+      <c r="F8" s="5">
+        <v>84</v>
+      </c>
+      <c r="G8" s="5">
+        <v>76</v>
+      </c>
+      <c r="H8" s="5">
+        <f>SUM(表1[[#This Row],[语文]:[英语]])</f>
+        <v>248</v>
+      </c>
+      <c r="I8" s="5">
+        <f>ROUND(AVERAGE(表1[[#This Row],[语文]:[英语]]),0)</f>
+        <v>83</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>2</v>
+      </c>
+      <c r="B9" s="5">
+        <v>3</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="5">
+        <v>82</v>
+      </c>
+      <c r="F9" s="5">
+        <v>75</v>
+      </c>
+      <c r="G9" s="5">
+        <v>90</v>
+      </c>
+      <c r="H9" s="5">
+        <f>SUM(表1[[#This Row],[语文]:[英语]])</f>
+        <v>247</v>
+      </c>
+      <c r="I9" s="5">
+        <f>ROUND(AVERAGE(表1[[#This Row],[语文]:[英语]]),0)</f>
+        <v>82</v>
+      </c>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>3</v>
+      </c>
+      <c r="B10" s="5">
+        <v>4</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="5">
+        <v>74</v>
+      </c>
+      <c r="F10" s="5">
+        <v>77</v>
+      </c>
+      <c r="G10" s="5">
+        <v>84</v>
+      </c>
+      <c r="H10" s="5">
+        <f>SUM(表1[[#This Row],[语文]:[英语]])</f>
+        <v>235</v>
+      </c>
+      <c r="I10" s="5">
+        <f>ROUND(AVERAGE(表1[[#This Row],[语文]:[英语]]),0)</f>
+        <v>78</v>
+      </c>
+      <c r="J10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="8"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="4" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="B11" s="5">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="5">
+        <v>79</v>
+      </c>
+      <c r="F11" s="5">
+        <v>90</v>
+      </c>
+      <c r="G11" s="5">
+        <v>88</v>
+      </c>
+      <c r="H11" s="5">
+        <f>SUM(表1[[#This Row],[语文]:[英语]])</f>
+        <v>257</v>
+      </c>
+      <c r="I11" s="5">
+        <f>ROUND(AVERAGE(表1[[#This Row],[语文]:[英语]]),0)</f>
+        <v>86</v>
+      </c>
+      <c r="J11" s="5"/>
     </row>
-    <row r="3" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5">
+        <f>SUBTOTAL(103,表1[姓名])</f>
+        <v>5</v>
+      </c>
+      <c r="E12" s="5">
+        <f>SUBTOTAL(101,表1[语文])</f>
+        <v>79.8</v>
+      </c>
+      <c r="F12" s="5">
+        <f>SUBTOTAL(101,表1[数学])</f>
+        <v>82.8</v>
+      </c>
+      <c r="G12" s="5">
+        <f>SUBTOTAL(101,表1[英语])</f>
+        <v>82.6</v>
+      </c>
+      <c r="H12" s="5">
+        <f>SUBTOTAL(101,表1[总分])</f>
+        <v>245.2</v>
+      </c>
+      <c r="I12" s="5">
+        <f>SUBTOTAL(101,表1[平均分])</f>
+        <v>81.8</v>
+      </c>
+      <c r="J12" s="5"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1">
-        <f>B5</f>
-        <v>1</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="1">
-        <v>76</v>
-      </c>
-      <c r="F5" s="1">
-        <v>88</v>
-      </c>
-      <c r="G5" s="1">
-        <v>75</v>
-      </c>
-      <c r="H5" s="1">
-        <f>SUM(E5:G5)</f>
-        <v>239</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1">
-        <f t="shared" ref="C6:C9" si="0">B6</f>
-        <v>2</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="1">
-        <v>88</v>
-      </c>
-      <c r="F6" s="1">
-        <v>84</v>
-      </c>
-      <c r="G6" s="1">
-        <v>76</v>
-      </c>
-      <c r="H6" s="1">
-        <f t="shared" ref="H6:H9" si="1">SUM(E6:G6)</f>
-        <v>248</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>2</v>
-      </c>
-      <c r="B7" s="1">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D7" s="1" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>18</v>
-      </c>
-      <c r="E7" s="1">
-        <v>82</v>
-      </c>
-      <c r="F7" s="1">
-        <v>75</v>
-      </c>
-      <c r="G7" s="1">
-        <v>90</v>
-      </c>
-      <c r="H7" s="1">
-        <f t="shared" si="1"/>
-        <v>247</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>3</v>
-      </c>
-      <c r="B8" s="1">
-        <v>4</v>
-      </c>
-      <c r="C8" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="1">
-        <v>74</v>
-      </c>
-      <c r="F8" s="1">
-        <v>77</v>
-      </c>
-      <c r="G8" s="1">
-        <v>84</v>
-      </c>
-      <c r="H8" s="1">
-        <f t="shared" si="1"/>
-        <v>235</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="1">
-        <v>79</v>
-      </c>
-      <c r="F9" s="1">
-        <v>90</v>
-      </c>
-      <c r="G9" s="1">
-        <v>88</v>
-      </c>
-      <c r="H9" s="1">
-        <f t="shared" si="1"/>
-        <v>257</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A2:J2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{805C7203-1F72-4320-A228-9C2C5C1DAF0B}">
+  <dimension ref="B2:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="6">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="6">
+        <v>76</v>
+      </c>
+      <c r="E9" s="6">
+        <v>88</v>
+      </c>
+      <c r="F9" s="6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="7">
+        <v>2</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="7">
+        <v>88</v>
+      </c>
+      <c r="E10" s="7">
+        <v>84</v>
+      </c>
+      <c r="F10" s="7">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="6">
+        <v>3</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="6">
+        <v>82</v>
+      </c>
+      <c r="E11" s="6">
+        <v>75</v>
+      </c>
+      <c r="F11" s="6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B6:F6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TemplateGOTests/data/table.xlsx
+++ b/TemplateGOTests/data/table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanglb\work\template-go\TemplateGOTests\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A100A7-2C1D-4C57-9263-4E065CA88F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22075380-3365-441A-8C86-687B54CFD2BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13635" yWindow="945" windowWidth="15270" windowHeight="13995" xr2:uid="{1FF4AB30-C56D-4952-8D75-2B4C64915CB0}"/>
+    <workbookView xWindow="6435" yWindow="435" windowWidth="18300" windowHeight="14775" xr2:uid="{1FF4AB30-C56D-4952-8D75-2B4C64915CB0}"/>
   </bookViews>
   <sheets>
     <sheet name="表格测试" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{7D43CB01-DB82-4035-813B-ACBC0C62FBCE}">
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{7D43CB01-DB82-4035-813B-ACBC0C62FBCE}">
       <text>
         <r>
           <rPr>
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
   <si>
     <t>#index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -265,6 +265,26 @@
   </si>
   <si>
     <t>${data|table:titleCount=3}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语评价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>english||eval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>良</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -479,7 +499,201 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="28">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border outline="0">
         <left style="thin">
@@ -522,19 +736,29 @@
       </fill>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
+        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -548,7 +772,9 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -561,22 +787,6 @@
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -608,7 +818,13 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -621,6 +837,12 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -652,7 +874,13 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -665,6 +893,12 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -696,7 +930,13 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -709,6 +949,12 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -737,198 +983,6 @@
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1367,7 +1421,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>表格测试!$H$7:$H$11</c:f>
+              <c:f>表格测试!$I$7:$I$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2201,7 +2255,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{286C6E91-E571-4FB6-91A2-DBA21E00E2A2}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="99" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="108" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2212,7 +2266,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9303712" cy="6080606"/>
+    <xdr:ext cx="9313333" cy="6085417"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1">
@@ -2242,30 +2296,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B442C8DA-7694-49E7-AF7D-85F44F169235}" name="表1" displayName="表1" ref="A6:J12" totalsRowCount="1" headerRowDxfId="25" dataDxfId="24" totalsRowDxfId="22" tableBorderDxfId="23">
-  <autoFilter ref="A6:J11" xr:uid="{B442C8DA-7694-49E7-AF7D-85F44F169235}"/>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{9E6086D4-EF08-43EE-BF01-64EB25833D42}" name="索引" totalsRowLabel="汇总" dataDxfId="21" totalsRowDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{04DC8F26-3481-4730-B199-15E72FECA9A2}" name="编号" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{A046EC53-05A4-4958-B0BC-DE5E6AC3860A}" name="Id" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{541F1BD9-CADD-4617-95CC-1C3F0C7E1E81}" name="姓名" totalsRowFunction="count" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{2E12F431-6842-43CD-A274-75785FF3B7C4}" name="语文" totalsRowFunction="average" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{9E6D9087-B7C7-43B9-83FB-868FBE9EEC16}" name="数学" totalsRowFunction="average" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{15E14A88-20BD-424B-817E-A0CA896D498A}" name="英语" totalsRowFunction="average" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{979B07F2-C388-46C4-9797-9940B2B2F267}" name="总分" totalsRowFunction="average" dataDxfId="7" totalsRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B442C8DA-7694-49E7-AF7D-85F44F169235}" name="表1" displayName="表1" ref="A6:K12" totalsRowCount="1" headerRowDxfId="27" dataDxfId="26" totalsRowDxfId="24" tableBorderDxfId="25">
+  <autoFilter ref="A6:K11" xr:uid="{B442C8DA-7694-49E7-AF7D-85F44F169235}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{9E6086D4-EF08-43EE-BF01-64EB25833D42}" name="索引" totalsRowLabel="汇总" dataDxfId="23" totalsRowDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{04DC8F26-3481-4730-B199-15E72FECA9A2}" name="编号" dataDxfId="22" totalsRowDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{A046EC53-05A4-4958-B0BC-DE5E6AC3860A}" name="Id" dataDxfId="21" totalsRowDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{541F1BD9-CADD-4617-95CC-1C3F0C7E1E81}" name="姓名" totalsRowFunction="count" dataDxfId="20" totalsRowDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{2E12F431-6842-43CD-A274-75785FF3B7C4}" name="语文" totalsRowFunction="average" dataDxfId="19" totalsRowDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{9E6D9087-B7C7-43B9-83FB-868FBE9EEC16}" name="数学" totalsRowFunction="average" dataDxfId="18" totalsRowDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{15E14A88-20BD-424B-817E-A0CA896D498A}" name="英语" totalsRowFunction="average" dataDxfId="17" totalsRowDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{8BFA00F4-90F6-4585-92F4-ADC6E31BCB36}" name="英语评价" dataDxfId="11" totalsRowDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{979B07F2-C388-46C4-9797-9940B2B2F267}" name="总分" totalsRowFunction="average" dataDxfId="16" totalsRowDxfId="2">
       <calculatedColumnFormula>SUM(表1[[#This Row],[语文]:[英语]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{5B46BDAF-CBCE-473F-B7CB-27C7F36099A5}" name="平均分" totalsRowFunction="average" dataDxfId="5" totalsRowDxfId="4">
+    <tableColumn id="9" xr3:uid="{5B46BDAF-CBCE-473F-B7CB-27C7F36099A5}" name="平均分" totalsRowFunction="average" dataDxfId="15" totalsRowDxfId="1">
       <calculatedColumnFormula>ROUND(AVERAGE(表1[[#This Row],[语文]:[英语]]),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{9AF9B39C-1EC7-4E9C-9807-0ADDA660ED6D}" name="说明" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{9AF9B39C-1EC7-4E9C-9807-0ADDA660ED6D}" name="说明" dataDxfId="14" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2F37CCA2-CA0B-4A31-B644-6241A751A3BB}" name="表4" displayName="表4" ref="B8:F11" totalsRowShown="0" headerRowDxfId="1" tableBorderDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2F37CCA2-CA0B-4A31-B644-6241A751A3BB}" name="表4" displayName="表4" ref="B8:F11" totalsRowShown="0" headerRowDxfId="13" tableBorderDxfId="12">
   <autoFilter ref="B8:F11" xr:uid="{2F37CCA2-CA0B-4A31-B644-6241A751A3BB}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{3A4BA778-6F79-4091-894A-EC403E0A8B57}" name="Id"/>
@@ -2575,19 +2630,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C72A37D3-4890-49D9-838A-E8D91E57246F}">
-  <dimension ref="A2:K14"/>
+  <dimension ref="A2:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="9" customWidth="1"/>
-    <col min="10" max="10" width="22.875" customWidth="1"/>
+    <col min="8" max="8" width="9.75" customWidth="1"/>
+    <col min="11" max="11" width="22.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>43</v>
       </c>
@@ -2599,9 +2653,10 @@
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
-      <c r="J2" s="12"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="12"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -2623,17 +2678,20 @@
       <c r="G3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>12</v>
       </c>
@@ -2646,8 +2704,9 @@
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>19</v>
       </c>
@@ -2670,19 +2729,22 @@
         <v>25</v>
       </c>
       <c r="H6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>0</v>
       </c>
@@ -2702,17 +2764,20 @@
       <c r="G7" s="5">
         <v>75</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="5">
         <f>SUM(表1[[#This Row],[语文]:[英语]])</f>
         <v>239</v>
       </c>
-      <c r="I7" s="5">
+      <c r="J7" s="5">
         <f>ROUND(AVERAGE(表1[[#This Row],[语文]:[英语]]),0)</f>
         <v>80</v>
       </c>
-      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>1</v>
       </c>
@@ -2732,19 +2797,22 @@
       <c r="G8" s="5">
         <v>76</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="5">
         <f>SUM(表1[[#This Row],[语文]:[英语]])</f>
         <v>248</v>
       </c>
-      <c r="I8" s="5">
+      <c r="J8" s="5">
         <f>ROUND(AVERAGE(表1[[#This Row],[语文]:[英语]]),0)</f>
         <v>83</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="K8" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>2</v>
       </c>
@@ -2764,17 +2832,20 @@
       <c r="G9" s="5">
         <v>90</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="5">
         <f>SUM(表1[[#This Row],[语文]:[英语]])</f>
         <v>247</v>
       </c>
-      <c r="I9" s="5">
+      <c r="J9" s="5">
         <f>ROUND(AVERAGE(表1[[#This Row],[语文]:[英语]]),0)</f>
         <v>82</v>
       </c>
-      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>3</v>
       </c>
@@ -2794,19 +2865,22 @@
       <c r="G10" s="5">
         <v>84</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="5">
         <f>SUM(表1[[#This Row],[语文]:[英语]])</f>
         <v>235</v>
       </c>
-      <c r="I10" s="5">
+      <c r="J10" s="5">
         <f>ROUND(AVERAGE(表1[[#This Row],[语文]:[英语]]),0)</f>
         <v>78</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="K10" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>4</v>
       </c>
@@ -2826,17 +2900,20 @@
       <c r="G11" s="5">
         <v>88</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" s="5">
         <f>SUM(表1[[#This Row],[语文]:[英语]])</f>
         <v>257</v>
       </c>
-      <c r="I11" s="5">
+      <c r="J11" s="5">
         <f>ROUND(AVERAGE(表1[[#This Row],[语文]:[英语]]),0)</f>
         <v>86</v>
       </c>
-      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>29</v>
       </c>
@@ -2858,25 +2935,26 @@
         <f>SUBTOTAL(101,表1[英语])</f>
         <v>82.6</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="5"/>
+      <c r="I12" s="5">
         <f>SUBTOTAL(101,表1[总分])</f>
         <v>245.2</v>
       </c>
-      <c r="I12" s="5">
+      <c r="J12" s="5">
         <f>SUBTOTAL(101,表1[平均分])</f>
         <v>81.8</v>
       </c>
-      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A2:K2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
